--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Пленочные высоковольтные конденсаторы</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>Кол-во паек</t>
+  </si>
+  <si>
+    <t>1uF 1500V</t>
+  </si>
+  <si>
+    <t>B32656S7105K561</t>
   </si>
 </sst>
 </file>
@@ -373,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -406,6 +412,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
